--- a/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
+++ b/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>特效说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,23 +244,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>026_9lianjizhan001(聚气)/002（过程）/003（爆炸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>027_9lianjida001(聚气)/002（过程）/003（爆炸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028_9lianjimo001(聚气)/002（过程）/004（爆炸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>突(双手武器过头顶，跃起；武器前端形成光球;跳回地面，武器砸地;横向冲击波范围打击，从左到右划过)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>029_9lianjitu001(聚气)/002（过程）/005（爆炸）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>030_9lianjigong001(聚气)/002（过程）/006（爆炸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>031_shengji001(拖尾)/002(吸气)/003(爆炸)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +266,34 @@
   </si>
   <si>
     <t>抽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>033_xiaoshoubiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1(聚气)/1_2（过程）/1_3（爆炸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1(聚气)/4_2（过程）/4_3（爆炸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1(聚气)/5_2（过程）/5_3（爆炸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1(聚气)/2_2（过程）/2_3（爆炸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1(聚气)/3_2（过程）/3_3（爆炸）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,9 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -761,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1001,63 +1006,68 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>60</v>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>61</v>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>67</v>
+      <c r="A34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3"/>

--- a/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
+++ b/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>特效说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>032_chouka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +290,57 @@
   </si>
   <si>
     <t>3_1(聚气)/3_2（过程）/3_3（爆炸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级(光柱往上升，伴随飞龙),有升级字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034_shengji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算-物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035_jiesuan001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算-宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036_baoxiang001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037_warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开场动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>038_kaichang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032_chouka001/002/003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039_zhudongjineng</t>
+  </si>
+  <si>
+    <t>主动技能光圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,15 +406,21 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -390,13 +443,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,22 +475,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,15 +838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="63.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="82.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="63.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="82.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1006,7 +1079,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1014,78 +1087,108 @@
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="3"/>
+      <c r="A38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
+++ b/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>特效说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,30 @@
   </si>
   <si>
     <t>主动技能光圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040_suipian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>041_jinbidiaoluo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落-宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落-金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>042_baoxiangdiaoluo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +521,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1188,6 +1215,30 @@
       </c>
       <c r="B42" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
+++ b/Assets/Development/effect/001_kxsg/kxsg特效文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>特效说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,23 +228,6 @@
   </si>
   <si>
     <t>022_bingdong001/002   (001都是持续状态，002为击中效果）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩（9连击，裂地斩，从左侧冲击切到右侧）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打(冲击波由左到右且逐渐变高)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔(单手举起武器，身后出现八卦图。武器向前方挥出。八卦图爆裂，
-奥术飞弹从左侧盘旋到右侧)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突(双手武器过头顶，跃起；武器前端形成光球;跳回地面，武器砸地;横向冲击波范围打击，从左到右划过)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>射(弯弓，拉满，身后出现翅膀，箭上出现流光;射箭;从左到右出现几束贯穿屏幕的光线，类似激光炮射击的感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>031_shengji001(拖尾)/002(吸气)/003(爆炸)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +344,107 @@
   </si>
   <si>
     <t>042_baoxiangdiaoluo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>043_wujiangdiaoluo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落-武将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>044_guaigongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045_gongjiangongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045_fashugongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045_changqianggongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045_daodungongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045_jiangongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪攻击(蓝色光爆炸，偏冷色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将攻击-弓箭（华丽的弓箭攻击，偏绿色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将攻击-法术（风，电，或者旋风，紫色调）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将攻击-长枪（突，金黄暖色的刀光）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将攻击-剑（斩，冷色刀光，红色的色调）斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将攻击-刀盾（刀光，蓝色）御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩（9连击，裂地斩，从左侧冲击切到右侧）红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打(冲击波由左到右且逐渐变高)   御  蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔(单手举起武器，身后出现八卦图。武器向前方挥出。八卦图爆裂，
+奥术飞弹从左侧盘旋到右侧)      紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突(双手武器过头顶，跃起；武器前端形成光球;跳回地面，武器砸地;横向冲击波范围打击，从左到右划过)                         长枪，金黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射(弯弓，拉满，身后出现翅膀，箭上出现流光;射箭;从左到右出现几束贯穿屏幕的光线，类似激光炮射击的感觉                          绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将从左出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>046_wujiangka001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将出现的速度线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>046_wujiangxian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将出现到画面里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>047_wujianghuamian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,14 +485,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,15 +494,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,41 +573,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -863,382 +956,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="63.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="82.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="42.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B34" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="B41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="3" t="s">
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="9" t="s">
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A53" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
